--- a/BASES ESTADÍSTICA DI/Reportes/Elecciones 2021 Candidatos por Comuna.xlsx
+++ b/BASES ESTADÍSTICA DI/Reportes/Elecciones 2021 Candidatos por Comuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\BASES ESTADÍSTICA DI\Reportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4CF582-810B-4335-9522-1FA455B669A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BE0411-A032-4637-8F6F-5B3F632CDE8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{AC220CD2-EF18-498A-8101-09231631FD2D}"/>
   </bookViews>
@@ -7682,13 +7682,14 @@
   <dimension ref="A1:C346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="149.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
